--- a/test-onto/ig/StructureDefinition-ror-telecom-usage.xlsx
+++ b/test-onto/ig/StructureDefinition-ror-telecom-usage.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T16:00:15+00:00</t>
+    <t>2024-03-25T16:16:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
